--- a/版本控制.xlsx
+++ b/版本控制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2835" windowWidth="14730" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>VersionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,7 +51,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、</t>
+    <t>http://url.cn/JITVxD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、更多的体验优化:::2、新增【一笑而过】亮点功能::::::赶快试用吧！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +78,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,21 +104,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,14 +489,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="27.625" customWidth="1"/>
     <col min="5" max="5" width="24.125" customWidth="1"/>
   </cols>
@@ -518,14 +538,20 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/版本控制.xlsx
+++ b/版本控制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2835" windowWidth="14730" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="2835" windowWidth="15030" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>VersionCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>1、更多的体验优化:::2、新增【一笑而过】亮点功能::::::赶快试用吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://url.cn/V2Cg56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新增消息列表； :::2、UI细节优化； :::3、根据用户反馈做出的体验优化；:::</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -497,7 +509,7 @@
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="55.75" customWidth="1"/>
     <col min="5" max="5" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -545,13 +557,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
